--- a/Squads/SP1/Sociedad_Cadiz_squad.xlsx
+++ b/Squads/SP1/Sociedad_Cadiz_squad.xlsx
@@ -90,184 +90,184 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1344</t>
-  </si>
-  <si>
-    <t>2638</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>2442</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>2639</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>2054</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>1698</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>2663</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>2466</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>2664</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>2483</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>2634</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>2633</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>1510</t>
   </si>
   <si>
     <t>1818</t>
   </si>
   <si>
-    <t>1865</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>1271</t>
-  </si>
-  <si>
-    <t>1563</t>
-  </si>
-  <si>
-    <t>2609</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>1294</t>
-  </si>
-  <si>
-    <t>2251</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>1496</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>577</t>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1823</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>1361</t>
   </si>
   <si>
     <t>1451</t>
   </si>
   <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1438</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>1732</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>1864</t>
-  </si>
-  <si>
-    <t>2157</t>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>2179</t>
   </si>
   <si>
     <t>Iván Alejo</t>
@@ -288,21 +288,21 @@
     <t>Mikel Merino</t>
   </si>
   <si>
+    <t>Javi Hernández</t>
+  </si>
+  <si>
     <t>Rubén Sobrino</t>
   </si>
   <si>
+    <t>Jon Pacheco</t>
+  </si>
+  <si>
     <t>Brais Méndez</t>
   </si>
   <si>
-    <t>Jon Pacheco</t>
-  </si>
-  <si>
     <t>Hamari Traoré</t>
   </si>
   <si>
-    <t>Javi Hernández</t>
-  </si>
-  <si>
     <t>Lucas</t>
   </si>
   <si>
@@ -324,12 +324,18 @@
     <t>Javi Galán</t>
   </si>
   <si>
+    <t>Mikel Oyarzabal</t>
+  </si>
+  <si>
     <t>Álex Remiro</t>
   </si>
   <si>
     <t>Beñat Turrientes</t>
   </si>
   <si>
+    <t>Víctor Chust</t>
+  </si>
+  <si>
     <t>Álex Fernández</t>
   </si>
   <si>
@@ -339,6 +345,12 @@
     <t>Roger Martí</t>
   </si>
   <si>
+    <t>Joseba Zaldúa</t>
+  </si>
+  <si>
+    <t>Jon Aramburu</t>
+  </si>
+  <si>
     <t>Aritz Elustondo</t>
   </si>
   <si>
@@ -348,13 +360,10 @@
     <t>Olasagasti</t>
   </si>
   <si>
-    <t>Mikel Oyarzabal</t>
-  </si>
-  <si>
     <t>Isaac Carcelen</t>
   </si>
   <si>
-    <t>Víctor Chust</t>
+    <t>Gonzalo Escalante</t>
   </si>
   <si>
     <t>Maxi Gómez</t>
@@ -366,12 +375,6 @@
     <t>Mamadou Mbaye</t>
   </si>
   <si>
-    <t>Joseba Zaldúa</t>
-  </si>
-  <si>
-    <t>Jon Aramburu</t>
-  </si>
-  <si>
     <t>Ander Barrenetxea</t>
   </si>
   <si>
@@ -390,9 +393,6 @@
     <t>Arsen Zakharyan</t>
   </si>
   <si>
-    <t>Gonzalo Escalante</t>
-  </si>
-  <si>
     <t>David Gil</t>
   </si>
   <si>
@@ -462,15 +462,18 @@
     <t>ng NGA</t>
   </si>
   <si>
+    <t>ve VEN</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
     <t>uy URU</t>
   </si>
   <si>
     <t>sn SEN</t>
   </si>
   <si>
-    <t>ve VEN</t>
-  </si>
-  <si>
     <t>jp JPN</t>
   </si>
   <si>
@@ -483,9 +486,6 @@
     <t>ru RUS</t>
   </si>
   <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
     <t>cm CMR</t>
   </si>
   <si>
@@ -525,184 +525,184 @@
     <t>es La Liga</t>
   </si>
   <si>
-    <t>29-087</t>
-  </si>
-  <si>
-    <t>33-006</t>
-  </si>
-  <si>
-    <t>27-178</t>
-  </si>
-  <si>
-    <t>27-038</t>
-  </si>
-  <si>
-    <t>30-269</t>
-  </si>
-  <si>
-    <t>27-320</t>
-  </si>
-  <si>
-    <t>31-341</t>
-  </si>
-  <si>
-    <t>27-121</t>
-  </si>
-  <si>
-    <t>23-120</t>
-  </si>
-  <si>
-    <t>32-101</t>
-  </si>
-  <si>
-    <t>26-005</t>
-  </si>
-  <si>
-    <t>23-044</t>
-  </si>
-  <si>
-    <t>25-095</t>
-  </si>
-  <si>
-    <t>27-095</t>
-  </si>
-  <si>
-    <t>35-023</t>
-  </si>
-  <si>
-    <t>27-110</t>
-  </si>
-  <si>
-    <t>27-351</t>
-  </si>
-  <si>
-    <t>29-170</t>
-  </si>
-  <si>
-    <t>29-044</t>
-  </si>
-  <si>
-    <t>22-097</t>
-  </si>
-  <si>
-    <t>31-205</t>
-  </si>
-  <si>
-    <t>30-353</t>
-  </si>
-  <si>
-    <t>33-125</t>
-  </si>
-  <si>
-    <t>30-040</t>
-  </si>
-  <si>
-    <t>26-265</t>
-  </si>
-  <si>
-    <t>23-265</t>
-  </si>
-  <si>
-    <t>27-016</t>
-  </si>
-  <si>
-    <t>31-014</t>
-  </si>
-  <si>
-    <t>24-063</t>
-  </si>
-  <si>
-    <t>27-267</t>
-  </si>
-  <si>
-    <t>27-142</t>
-  </si>
-  <si>
-    <t>25-314</t>
-  </si>
-  <si>
-    <t>31-318</t>
-  </si>
-  <si>
-    <t>21-289</t>
-  </si>
-  <si>
-    <t>22-132</t>
-  </si>
-  <si>
-    <t>23-048</t>
-  </si>
-  <si>
-    <t>22-338</t>
-  </si>
-  <si>
-    <t>28-183</t>
-  </si>
-  <si>
-    <t>26-337</t>
-  </si>
-  <si>
-    <t>20-347</t>
-  </si>
-  <si>
-    <t>31-041</t>
-  </si>
-  <si>
-    <t>30-117</t>
-  </si>
-  <si>
-    <t>32-344</t>
-  </si>
-  <si>
-    <t>36-153</t>
-  </si>
-  <si>
-    <t>24-317</t>
-  </si>
-  <si>
-    <t>27-052</t>
-  </si>
-  <si>
-    <t>21-292</t>
-  </si>
-  <si>
-    <t>23-299</t>
-  </si>
-  <si>
-    <t>22-211</t>
-  </si>
-  <si>
-    <t>28-145</t>
-  </si>
-  <si>
-    <t>20-185</t>
-  </si>
-  <si>
-    <t>20-127</t>
-  </si>
-  <si>
-    <t>31-084</t>
-  </si>
-  <si>
-    <t>31-090</t>
-  </si>
-  <si>
-    <t>27-020</t>
-  </si>
-  <si>
-    <t>22-025</t>
-  </si>
-  <si>
-    <t>38-261</t>
-  </si>
-  <si>
-    <t>24-287</t>
-  </si>
-  <si>
-    <t>24-119</t>
-  </si>
-  <si>
-    <t>28-117</t>
+    <t>29-099</t>
+  </si>
+  <si>
+    <t>33-018</t>
+  </si>
+  <si>
+    <t>27-190</t>
+  </si>
+  <si>
+    <t>27-050</t>
+  </si>
+  <si>
+    <t>30-281</t>
+  </si>
+  <si>
+    <t>27-332</t>
+  </si>
+  <si>
+    <t>26-017</t>
+  </si>
+  <si>
+    <t>31-353</t>
+  </si>
+  <si>
+    <t>23-132</t>
+  </si>
+  <si>
+    <t>27-133</t>
+  </si>
+  <si>
+    <t>32-113</t>
+  </si>
+  <si>
+    <t>23-056</t>
+  </si>
+  <si>
+    <t>25-107</t>
+  </si>
+  <si>
+    <t>27-107</t>
+  </si>
+  <si>
+    <t>35-035</t>
+  </si>
+  <si>
+    <t>27-122</t>
+  </si>
+  <si>
+    <t>27-363</t>
+  </si>
+  <si>
+    <t>29-182</t>
+  </si>
+  <si>
+    <t>27-028</t>
+  </si>
+  <si>
+    <t>29-056</t>
+  </si>
+  <si>
+    <t>22-109</t>
+  </si>
+  <si>
+    <t>24-075</t>
+  </si>
+  <si>
+    <t>31-217</t>
+  </si>
+  <si>
+    <t>30-365</t>
+  </si>
+  <si>
+    <t>33-137</t>
+  </si>
+  <si>
+    <t>31-330</t>
+  </si>
+  <si>
+    <t>21-301</t>
+  </si>
+  <si>
+    <t>30-052</t>
+  </si>
+  <si>
+    <t>26-277</t>
+  </si>
+  <si>
+    <t>23-277</t>
+  </si>
+  <si>
+    <t>31-026</t>
+  </si>
+  <si>
+    <t>31-053</t>
+  </si>
+  <si>
+    <t>27-279</t>
+  </si>
+  <si>
+    <t>27-154</t>
+  </si>
+  <si>
+    <t>25-326</t>
+  </si>
+  <si>
+    <t>22-144</t>
+  </si>
+  <si>
+    <t>23-060</t>
+  </si>
+  <si>
+    <t>22-350</t>
+  </si>
+  <si>
+    <t>28-195</t>
+  </si>
+  <si>
+    <t>26-349</t>
+  </si>
+  <si>
+    <t>20-359</t>
+  </si>
+  <si>
+    <t>30-129</t>
+  </si>
+  <si>
+    <t>32-356</t>
+  </si>
+  <si>
+    <t>36-165</t>
+  </si>
+  <si>
+    <t>24-329</t>
+  </si>
+  <si>
+    <t>27-064</t>
+  </si>
+  <si>
+    <t>21-304</t>
+  </si>
+  <si>
+    <t>23-311</t>
+  </si>
+  <si>
+    <t>22-223</t>
+  </si>
+  <si>
+    <t>28-157</t>
+  </si>
+  <si>
+    <t>20-197</t>
+  </si>
+  <si>
+    <t>20-139</t>
+  </si>
+  <si>
+    <t>31-096</t>
+  </si>
+  <si>
+    <t>31-102</t>
+  </si>
+  <si>
+    <t>27-032</t>
+  </si>
+  <si>
+    <t>22-037</t>
+  </si>
+  <si>
+    <t>38-273</t>
+  </si>
+  <si>
+    <t>24-299</t>
+  </si>
+  <si>
+    <t>24-131</t>
+  </si>
+  <si>
+    <t>28-129</t>
   </si>
   <si>
     <t>1995</t>
@@ -720,13 +720,13 @@
     <t>1993</t>
   </si>
   <si>
+    <t>1998</t>
+  </si>
+  <si>
     <t>1992</t>
   </si>
   <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>1998</t>
   </si>
   <si>
     <t>1999</t>
@@ -959,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
@@ -983,10 +983,10 @@
         <v>230</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="K2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -995,22 +995,22 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="P2" t="n">
         <v>9.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.0</v>
+        <v>151.0</v>
       </c>
       <c r="R2" t="n">
         <v>7.0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -1022,16 +1022,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="X2" t="n">
         <v>15.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="3">
@@ -1039,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -1063,7 +1063,7 @@
         <v>231</v>
       </c>
       <c r="J3" t="n">
-        <v>30.8</v>
+        <v>32.8</v>
       </c>
       <c r="K3" t="n">
         <v>14.0</v>
@@ -1075,22 +1075,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="O3" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="R3" t="n">
         <v>33.0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1102,16 +1102,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>208.0</v>
+        <v>220.0</v>
       </c>
       <c r="X3" t="n">
         <v>45.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="4">
@@ -1119,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>1421.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -1143,7 +1143,7 @@
         <v>232</v>
       </c>
       <c r="J4" t="n">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="K4" t="n">
         <v>13.0</v>
@@ -1155,10 +1155,10 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="P4" t="n">
         <v>1.0</v>
@@ -1167,10 +1167,10 @@
         <v>1.0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -1182,16 +1182,16 @@
         <v>1.0</v>
       </c>
       <c r="W4" t="n">
-        <v>99.0</v>
+        <v>111.0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.0</v>
+        <v>110.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>65.6</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="5">
@@ -1199,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>2786.0</v>
+        <v>2811.0</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -1279,7 +1279,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>831.0</v>
+        <v>838.0</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -1303,7 +1303,7 @@
         <v>234</v>
       </c>
       <c r="J6" t="n">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="K6" t="n">
         <v>11.0</v>
@@ -1315,10 +1315,10 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -1327,10 +1327,10 @@
         <v>9.0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1342,16 +1342,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>104.0</v>
+        <v>115.0</v>
       </c>
       <c r="X6" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>50.0</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="7">
@@ -1359,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1701.0</v>
+        <v>1717.0</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -1383,7 +1383,7 @@
         <v>232</v>
       </c>
       <c r="J7" t="n">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="K7" t="n">
         <v>10.0</v>
@@ -1395,22 +1395,22 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="O7" t="n">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="P7" t="n">
         <v>6.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S7" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1422,16 +1422,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>180.0</v>
+        <v>191.0</v>
       </c>
       <c r="X7" t="n">
-        <v>154.0</v>
+        <v>161.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.0</v>
+        <v>100.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>62.6</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="8">
@@ -1439,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>2412.0</v>
+        <v>1115.0</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1448,7 +1448,7 @@
         <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>167</v>
@@ -1463,34 +1463,34 @@
         <v>235</v>
       </c>
       <c r="J8" t="n">
-        <v>16.1</v>
+        <v>25.9</v>
       </c>
       <c r="K8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="O8" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.0</v>
+        <v>121.0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1502,16 +1502,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>103.0</v>
+        <v>133.0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>54.1</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="9">
@@ -1519,7 +1519,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>1688.0</v>
+        <v>2435.0</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -1531,7 +1531,7 @@
         <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
         <v>169</v>
@@ -1540,40 +1540,40 @@
         <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J9" t="n">
-        <v>23.8</v>
+        <v>17.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0</v>
+        <v>31.0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.0</v>
+        <v>22.0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
@@ -1585,13 +1585,13 @@
         <v>107.0</v>
       </c>
       <c r="X9" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>42.1</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="10">
@@ -1599,7 +1599,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>1974.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -1620,13 +1620,13 @@
         <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J10" t="n">
-        <v>13.2</v>
+        <v>15.0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
@@ -1635,7 +1635,7 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="O10" t="n">
         <v>1.0</v>
@@ -1647,10 +1647,10 @@
         <v>1.0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1662,16 +1662,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.0</v>
+        <v>54.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>61.8</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="11">
@@ -1679,16 +1679,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>2573.0</v>
+        <v>1704.0</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
         <v>168</v>
@@ -1700,10 +1700,10 @@
         <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J11" t="n">
-        <v>22.6</v>
+        <v>25.0</v>
       </c>
       <c r="K11" t="n">
         <v>6.0</v>
@@ -1715,25 +1715,25 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>26.0</v>
+        <v>52.0</v>
       </c>
       <c r="O11" t="n">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.0</v>
+        <v>100.0</v>
       </c>
       <c r="R11" t="n">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
@@ -1742,16 +1742,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>127.0</v>
+        <v>112.0</v>
       </c>
       <c r="X11" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y11" t="n">
         <v>33.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>45.0</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="12">
@@ -1759,19 +1759,19 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>1107.0</v>
+        <v>2597.0</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
         <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
         <v>169</v>
@@ -1780,10 +1780,10 @@
         <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="K12" t="n">
         <v>6.0</v>
@@ -1795,22 +1795,22 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="P12" t="n">
         <v>1.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.0</v>
+        <v>46.0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="S12" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -1822,16 +1822,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>124.0</v>
+        <v>134.0</v>
       </c>
       <c r="X12" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="13">
@@ -1839,7 +1839,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1497.0</v>
+        <v>1509.0</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -1860,10 +1860,10 @@
         <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J13" t="n">
-        <v>16.0</v>
+        <v>16.1</v>
       </c>
       <c r="K13" t="n">
         <v>6.0</v>
@@ -1890,7 +1890,7 @@
         <v>17.0</v>
       </c>
       <c r="S13" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
@@ -1902,7 +1902,7 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="X13" t="n">
         <v>11.0</v>
@@ -1919,7 +1919,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2787.0</v>
+        <v>2812.0</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -1999,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2257.0</v>
+        <v>2279.0</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
@@ -2079,7 +2079,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1110.0</v>
+        <v>1118.0</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
@@ -2159,7 +2159,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2138.0</v>
+        <v>2159.0</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -2183,7 +2183,7 @@
         <v>233</v>
       </c>
       <c r="J17" t="n">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="K17" t="n">
         <v>4.0</v>
@@ -2195,10 +2195,10 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="P17" t="n">
         <v>12.0</v>
@@ -2210,10 +2210,10 @@
         <v>9.0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -2222,16 +2222,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="X17" t="n">
-        <v>153.0</v>
+        <v>163.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>153.0</v>
+        <v>162.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>50.0</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="18">
@@ -2239,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>851.0</v>
+        <v>858.0</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
@@ -2319,7 +2319,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>911.0</v>
+        <v>918.0</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -2399,7 +2399,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2168.0</v>
+        <v>1988.0</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -2408,7 +2408,7 @@
         <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
         <v>168</v>
@@ -2420,37 +2420,37 @@
         <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J20" t="n">
-        <v>32.4</v>
+        <v>22.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -2462,16 +2462,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>100.0</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="21">
@@ -2479,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2590.0</v>
+        <v>2189.0</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -2488,7 +2488,7 @@
         <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
         <v>168</v>
@@ -2500,37 +2500,37 @@
         <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J21" t="n">
-        <v>15.1</v>
+        <v>34.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="O21" t="n">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -2542,16 +2542,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
       <c r="X21" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>34.1</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="22">
@@ -2559,7 +2559,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>850.0</v>
+        <v>2614.0</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -2571,7 +2571,7 @@
         <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>169</v>
@@ -2580,10 +2580,10 @@
         <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J22" t="n">
-        <v>13.6</v>
+        <v>17.1</v>
       </c>
       <c r="K22" t="n">
         <v>3.0</v>
@@ -2595,23 +2595,23 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.0</v>
+        <v>34.0</v>
       </c>
       <c r="O22" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S22" t="n">
         <v>16.0</v>
       </c>
-      <c r="P22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>9.0</v>
-      </c>
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
@@ -2622,16 +2622,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>80.0</v>
+        <v>72.0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>44.8</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="23">
@@ -2639,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>1235.0</v>
+        <v>535.0</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -2648,7 +2648,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>167</v>
@@ -2660,37 +2660,37 @@
         <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J23" t="n">
-        <v>8.4</v>
+        <v>19.9</v>
       </c>
       <c r="K23" t="n">
         <v>3.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="P23" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" t="n">
         <v>2.0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -2702,16 +2702,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>36.0</v>
+        <v>76.0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>25.0</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="24">
@@ -2719,7 +2719,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>1599.0</v>
+        <v>857.0</v>
       </c>
       <c r="C24" t="s">
         <v>107</v>
@@ -2728,7 +2728,7 @@
         <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
         <v>167</v>
@@ -2740,10 +2740,10 @@
         <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J24" t="n">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.0</v>
@@ -2755,22 +2755,22 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>28.0</v>
+        <v>5.0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="S24" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -2782,16 +2782,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>48.0</v>
+        <v>80.0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>32.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="25">
@@ -2799,7 +2799,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>798.0</v>
+        <v>1244.0</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
@@ -2808,10 +2808,10 @@
         <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
         <v>169</v>
@@ -2820,31 +2820,31 @@
         <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J25" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.0</v>
       </c>
       <c r="R25" t="n">
         <v>6.0</v>
@@ -2862,16 +2862,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="X25" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>63.3</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -2879,7 +2879,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>1798.0</v>
+        <v>1613.0</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
@@ -2888,10 +2888,10 @@
         <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
         <v>169</v>
@@ -2900,13 +2900,13 @@
         <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -2915,22 +2915,22 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="O26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P26" t="n">
         <v>8.0</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="S26" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -2942,16 +2942,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="X26" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.5</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="27">
@@ -2959,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1921.0</v>
+        <v>2777.0</v>
       </c>
       <c r="C27" t="s">
         <v>110</v>
@@ -2968,10 +2968,10 @@
         <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
         <v>169</v>
@@ -2980,13 +2980,13 @@
         <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -2995,43 +2995,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="P27" t="n">
         <v>1.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="R27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>3.0</v>
       </c>
-      <c r="S27" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Z27" t="n">
-        <v>40.0</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="28">
@@ -3039,16 +3039,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1969.0</v>
+        <v>124.0</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>168</v>
@@ -3060,10 +3060,10 @@
         <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J28" t="n">
-        <v>21.5</v>
+        <v>5.8</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -3075,22 +3075,22 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="O28" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="P28" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S28" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -3102,16 +3102,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>61.0</v>
+        <v>21.0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>34.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="29">
@@ -3119,7 +3119,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>453.0</v>
+        <v>805.0</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -3131,7 +3131,7 @@
         <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
         <v>169</v>
@@ -3140,10 +3140,10 @@
         <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J29" t="n">
-        <v>28.6</v>
+        <v>7.0</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3155,22 +3155,22 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="O29" t="n">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.0</v>
+        <v>1.0</v>
       </c>
       <c r="R29" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -3182,16 +3182,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>126.0</v>
+        <v>35.0</v>
       </c>
       <c r="X29" t="n">
         <v>22.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>37.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="30">
@@ -3199,7 +3199,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>530.0</v>
+        <v>1815.0</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
@@ -3211,7 +3211,7 @@
         <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
         <v>169</v>
@@ -3220,37 +3220,37 @@
         <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J30" t="n">
-        <v>17.9</v>
+        <v>12.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="O30" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="S30" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -3262,16 +3262,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="X30" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>50.0</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="31">
@@ -3279,19 +3279,19 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>977.0</v>
+        <v>1939.0</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
         <v>169</v>
@@ -3300,10 +3300,10 @@
         <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J31" t="n">
-        <v>12.6</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3315,22 +3315,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="O31" t="n">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c r="P31" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S31" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3342,16 +3342,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>51.1</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="32">
@@ -3359,16 +3359,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1347.0</v>
+        <v>457.0</v>
       </c>
       <c r="C32" t="s">
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
         <v>167</v>
@@ -3380,10 +3380,10 @@
         <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J32" t="n">
-        <v>9.1</v>
+        <v>28.9</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3395,22 +3395,22 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.0</v>
+        <v>44.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.0</v>
+        <v>65.0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -3422,16 +3422,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>60.0</v>
+        <v>128.0</v>
       </c>
       <c r="X32" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>59.4</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="33">
@@ -3439,7 +3439,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1657.0</v>
+        <v>817.0</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
@@ -3448,7 +3448,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3460,58 +3460,58 @@
         <v>201</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>17.2</v>
       </c>
       <c r="K33" t="n">
         <v>2.0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.0</v>
+        <v>29.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R33" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="S33" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.0</v>
+        <v>87.0</v>
       </c>
       <c r="X33" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>64.3</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="34">
@@ -3519,16 +3519,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>2752.0</v>
+        <v>984.0</v>
       </c>
       <c r="C34" t="s">
         <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -3540,10 +3540,10 @@
         <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>12.9</v>
       </c>
       <c r="K34" t="n">
         <v>2.0</v>
@@ -3555,22 +3555,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="O34" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R34" t="n">
         <v>3.0</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.0</v>
-      </c>
       <c r="S34" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -3585,13 +3585,13 @@
         <v>15.0</v>
       </c>
       <c r="X34" t="n">
-        <v>5.0</v>
+        <v>69.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.0</v>
+        <v>67.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>62.5</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="35">
@@ -3599,19 +3599,19 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>122.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C35" t="s">
         <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
         <v>169</v>
@@ -3620,13 +3620,13 @@
         <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J35" t="n">
-        <v>4.9</v>
+        <v>9.1</v>
       </c>
       <c r="K35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
@@ -3635,19 +3635,19 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="S35" t="n">
         <v>9.0</v>
@@ -3662,16 +3662,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>18.0</v>
+        <v>60.0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>46.2</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="36">
@@ -3679,19 +3679,19 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>222.0</v>
+        <v>1673.0</v>
       </c>
       <c r="C36" t="s">
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
         <v>169</v>
@@ -3700,13 +3700,13 @@
         <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" t="n">
-        <v>14.1</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -3715,43 +3715,43 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="O36" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="R36" t="n">
         <v>5.0</v>
       </c>
       <c r="S36" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V36" t="n">
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>76.0</v>
+        <v>10.0</v>
       </c>
       <c r="X36" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>36.1</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="37">
@@ -3759,7 +3759,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>992.0</v>
+        <v>225.0</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
@@ -3768,7 +3768,7 @@
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>168</v>
@@ -3780,10 +3780,10 @@
         <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J37" t="n">
-        <v>1.7</v>
+        <v>14.9</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3795,22 +3795,22 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -3822,16 +3822,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="X37" t="n">
         <v>13.0</v>
       </c>
-      <c r="X37" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y37" t="n">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>55.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="38">
@@ -3839,16 +3839,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1370.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C38" t="s">
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
         <v>168</v>
@@ -3860,10 +3860,10 @@
         <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J38" t="n">
-        <v>21.7</v>
+        <v>1.7</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3875,22 +3875,22 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="O38" t="n">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
       <c r="P38" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>132.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -3902,16 +3902,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>86.0</v>
+        <v>13.0</v>
       </c>
       <c r="X38" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>36.0</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="39">
@@ -3919,7 +3919,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>2375.0</v>
+        <v>1380.0</v>
       </c>
       <c r="C39" t="s">
         <v>122</v>
@@ -3928,7 +3928,7 @@
         <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
         <v>168</v>
@@ -3940,10 +3940,10 @@
         <v>207</v>
       </c>
       <c r="I39" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J39" t="n">
-        <v>7.2</v>
+        <v>22.9</v>
       </c>
       <c r="K39" t="n">
         <v>1.0</v>
@@ -3955,22 +3955,22 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.0</v>
+        <v>49.0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0</v>
+        <v>139.0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="S39" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
@@ -3982,16 +3982,16 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>20.0</v>
+        <v>92.0</v>
       </c>
       <c r="X39" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="40">
@@ -3999,7 +3999,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>2537.0</v>
+        <v>2398.0</v>
       </c>
       <c r="C40" t="s">
         <v>123</v>
@@ -4008,7 +4008,7 @@
         <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
         <v>168</v>
@@ -4020,10 +4020,10 @@
         <v>208</v>
       </c>
       <c r="I40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J40" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="K40" t="n">
         <v>1.0</v>
@@ -4035,22 +4035,22 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="O40" t="n">
         <v>7.0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="S40" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
@@ -4062,16 +4062,16 @@
         <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>43.8</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="41">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>2751.0</v>
+        <v>2561.0</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
@@ -4088,7 +4088,7 @@
         <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
         <v>168</v>
@@ -4100,10 +4100,10 @@
         <v>209</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J41" t="n">
-        <v>12.0</v>
+        <v>12.1</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
@@ -4115,43 +4115,43 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>18.0</v>
       </c>
-      <c r="O41" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>21.0</v>
-      </c>
       <c r="Z41" t="n">
-        <v>34.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="42">
@@ -4159,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>810.0</v>
+        <v>2776.0</v>
       </c>
       <c r="C42" t="s">
         <v>125</v>
@@ -4168,10 +4168,10 @@
         <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
         <v>169</v>
@@ -4180,37 +4180,37 @@
         <v>210</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="J42" t="n">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="K42" t="n">
         <v>1.0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M42" t="n">
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="O42" t="n">
         <v>11.0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q42" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="R42" t="n">
         <v>4.0</v>
       </c>
-      <c r="R42" t="n">
-        <v>20.0</v>
-      </c>
       <c r="S42" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -4222,16 +4222,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>77.0</v>
+        <v>50.0</v>
       </c>
       <c r="X42" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>48.9</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="43">
@@ -4239,7 +4239,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>958.0</v>
+        <v>965.0</v>
       </c>
       <c r="C43" t="s">
         <v>126</v>
@@ -4319,7 +4319,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1026.0</v>
+        <v>1034.0</v>
       </c>
       <c r="C44" t="s">
         <v>127</v>
@@ -4343,7 +4343,7 @@
         <v>231</v>
       </c>
       <c r="J44" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K44" t="n">
         <v>1.0</v>
@@ -4358,13 +4358,13 @@
         <v>16.0</v>
       </c>
       <c r="O44" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="P44" t="n">
         <v>3.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="R44" t="n">
         <v>0.0</v>
@@ -4382,7 +4382,7 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="X44" t="n">
         <v>5.0</v>
@@ -4399,7 +4399,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1583.0</v>
+        <v>1597.0</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
@@ -4479,13 +4479,13 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1903.0</v>
+        <v>1921.0</v>
       </c>
       <c r="C46" t="s">
         <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E46" t="s">
         <v>160</v>
@@ -4503,7 +4503,7 @@
         <v>238</v>
       </c>
       <c r="J46" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K46" t="n">
         <v>1.0</v>
@@ -4524,7 +4524,7 @@
         <v>0.0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="R46" t="n">
         <v>1.0</v>
@@ -4559,7 +4559,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>2280.0</v>
+        <v>2302.0</v>
       </c>
       <c r="C47" t="s">
         <v>130</v>
@@ -4639,7 +4639,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>611.0</v>
+        <v>617.0</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
@@ -4719,7 +4719,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>1534.0</v>
+        <v>1547.0</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
@@ -4799,7 +4799,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>1596.0</v>
+        <v>1610.0</v>
       </c>
       <c r="C50" t="s">
         <v>133</v>
@@ -4820,7 +4820,7 @@
         <v>218</v>
       </c>
       <c r="I50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J50" t="n">
         <v>1.6</v>
@@ -4879,7 +4879,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>1908.0</v>
+        <v>1926.0</v>
       </c>
       <c r="C51" t="s">
         <v>134</v>
@@ -4903,7 +4903,7 @@
         <v>230</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -4915,43 +4915,43 @@
         <v>0.0</v>
       </c>
       <c r="N51" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O51" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P51" t="n">
         <v>1.0</v>
       </c>
       <c r="Q51" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="R51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S51" t="n">
         <v>7.0</v>
       </c>
-      <c r="S51" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T51" t="n">
         <v>0.0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V51" t="n">
         <v>0.0</v>
       </c>
       <c r="W51" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="X51" t="n">
         <v>1.0</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z51" t="n">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="52">
@@ -4959,7 +4959,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>682.0</v>
+        <v>689.0</v>
       </c>
       <c r="C52" t="s">
         <v>135</v>
@@ -5039,7 +5039,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>818.0</v>
+        <v>825.0</v>
       </c>
       <c r="C53" t="s">
         <v>136</v>
@@ -5119,13 +5119,13 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>1426.0</v>
+        <v>1438.0</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
         <v>165</v>
@@ -5143,7 +5143,7 @@
         <v>234</v>
       </c>
       <c r="J54" t="n">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="K54" t="n">
         <v>0.0</v>
@@ -5158,7 +5158,7 @@
         <v>1.0</v>
       </c>
       <c r="O54" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P54" t="n">
         <v>0.0</v>
@@ -5182,16 +5182,16 @@
         <v>0.0</v>
       </c>
       <c r="W54" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="X54" t="n">
         <v>6.0</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z54" t="n">
-        <v>75.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="55">
@@ -5199,13 +5199,13 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>1521.0</v>
+        <v>1534.0</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>160</v>
@@ -5279,7 +5279,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>1699.0</v>
+        <v>1715.0</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
@@ -5359,7 +5359,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>1832.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C57" t="s">
         <v>140</v>
@@ -5383,7 +5383,7 @@
         <v>241</v>
       </c>
       <c r="J57" t="n">
-        <v>17.5</v>
+        <v>19.3</v>
       </c>
       <c r="K57" t="n">
         <v>0.0</v>
@@ -5398,19 +5398,19 @@
         <v>14.0</v>
       </c>
       <c r="O57" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="P57" t="n">
         <v>4.0</v>
       </c>
       <c r="Q57" t="n">
-        <v>84.0</v>
+        <v>94.0</v>
       </c>
       <c r="R57" t="n">
         <v>16.0</v>
       </c>
       <c r="S57" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="T57" t="n">
         <v>0.0</v>
@@ -5422,16 +5422,16 @@
         <v>0.0</v>
       </c>
       <c r="W57" t="n">
-        <v>106.0</v>
+        <v>115.0</v>
       </c>
       <c r="X57" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y57" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z57" t="n">
-        <v>42.3</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="58">
@@ -5439,7 +5439,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>1846.0</v>
+        <v>1863.0</v>
       </c>
       <c r="C58" t="s">
         <v>141</v>
@@ -5519,7 +5519,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>1958.0</v>
+        <v>1976.0</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>
@@ -5599,7 +5599,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>1968.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C60" t="s">
         <v>143</v>
@@ -5679,7 +5679,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="n">
-        <v>2274.0</v>
+        <v>2296.0</v>
       </c>
       <c r="C61" t="s">
         <v>144</v>
@@ -5871,13 +5871,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>1969.0</v>
+        <v>1988.0</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
@@ -5892,22 +5892,22 @@
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
         <v>233</v>
       </c>
       <c r="J2" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>21.5</v>
+        <v>22.7</v>
       </c>
       <c r="N2" t="n">
         <v>9.0</v>
@@ -5928,13 +5928,13 @@
         <v>2.0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>8.8</v>
+        <v>8.9</v>
       </c>
       <c r="W2" t="n">
         <v>7.3</v>
@@ -5946,45 +5946,45 @@
         <v>8.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0</v>
+        <v>121.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="n">
         <v>0.09</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
-        <v>1370.0</v>
+        <v>1380.0</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>164</v>
@@ -5996,31 +5996,31 @@
         <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J3" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="N3" t="n">
         <v>7.0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -6038,43 +6038,43 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>121.0</v>
+        <v>129.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.0</v>
+        <v>83.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.0</v>
+        <v>217.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -6082,7 +6082,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>2138.0</v>
+        <v>2159.0</v>
       </c>
       <c r="C4" t="s">
         <v>100</v>
@@ -6106,16 +6106,16 @@
         <v>233</v>
       </c>
       <c r="J4" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="N4" t="n">
         <v>5.0</v>
@@ -6142,54 +6142,54 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.0</v>
+        <v>11.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AD4" t="n">
         <v>0.04</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
-        <v>222.0</v>
+        <v>225.0</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -6204,22 +6204,22 @@
         <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J5" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="K5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="N5" t="n">
         <v>4.0</v>
@@ -6246,54 +6246,54 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
         <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.0</v>
+        <v>152.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AD5" t="n">
         <v>0.07</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>1688.0</v>
+        <v>1704.0</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -6308,22 +6308,22 @@
         <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
         <v>233</v>
       </c>
       <c r="J6" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="K6" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>23.8</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="n">
         <v>4.0</v>
@@ -6350,40 +6350,40 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.7</v>
+        <v>4.0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.7</v>
+        <v>4.0</v>
       </c>
       <c r="X6" t="n">
-        <v>4.0</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.0</v>
+        <v>115.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AH6" t="n">
         <v>0.16</v>
@@ -6394,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1701.0</v>
+        <v>1717.0</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -6418,16 +6418,16 @@
         <v>232</v>
       </c>
       <c r="J7" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="K7" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="N7" t="n">
         <v>4.0</v>
@@ -6460,37 +6460,37 @@
         <v>3.2</v>
       </c>
       <c r="X7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="Z7" t="n">
         <v>24.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.0</v>
+        <v>160.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -6498,7 +6498,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>2787.0</v>
+        <v>2812.0</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -6602,13 +6602,13 @@
         <v>78</v>
       </c>
       <c r="B9" t="n">
-        <v>1521.0</v>
+        <v>1534.0</v>
       </c>
       <c r="C9" t="s">
         <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>160</v>
@@ -6706,7 +6706,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>2257.0</v>
+        <v>2279.0</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -6807,43 +6807,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B11" t="n">
-        <v>1235.0</v>
+        <v>2398.0</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
         <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J11" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="K11" t="n">
         <v>9.0</v>
       </c>
       <c r="L11" t="n">
-        <v>753.0</v>
+        <v>720.0</v>
       </c>
       <c r="M11" t="n">
-        <v>8.4</v>
+        <v>8.0</v>
       </c>
       <c r="N11" t="n">
         <v>3.0</v>
@@ -6855,215 +6855,215 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z11" t="n">
         <v>5.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AD11" t="n">
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>851.0</v>
+        <v>67.0</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
         <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="K12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>408.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>32.8</v>
       </c>
       <c r="N12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.0</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.0</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T12" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.0</v>
+        <v>142.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>1421.0</v>
+        <v>1244.0</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
         <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J13" t="n">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="K13" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>810.0</v>
       </c>
       <c r="M13" t="n">
-        <v>25.4</v>
+        <v>9.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R13" t="n">
         <v>0.0</v>
@@ -7072,63 +7072,63 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.0</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.0</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>2375.0</v>
+        <v>858.0</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
         <v>163</v>
@@ -7140,31 +7140,31 @@
         <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J14" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="L14" t="n">
-        <v>646.0</v>
+        <v>408.0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -7176,164 +7176,164 @@
         <v>1.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>4.0</v>
       </c>
-      <c r="AA14" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AB14" t="n">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>66.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J15" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>30.8</v>
+        <v>27.4</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.3</v>
+        <v>1.0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="X15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.8</v>
       </c>
       <c r="Z15" t="n">
         <v>21.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>132.0</v>
+        <v>106.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>1599.0</v>
+        <v>1613.0</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
@@ -7348,22 +7348,22 @@
         <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I16" t="s">
         <v>231</v>
       </c>
       <c r="J16" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
@@ -7390,40 +7390,40 @@
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="W16" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
         <v>2.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="AH16" t="n">
         <v>0.19</v>
@@ -7434,7 +7434,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>1974.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
@@ -7455,19 +7455,19 @@
         <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J17" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="K17" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>13.2</v>
+        <v>15.0</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -7488,7 +7488,7 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -7506,45 +7506,45 @@
         <v>1.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB17" t="n">
         <v>1.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="n">
-        <v>2751.0</v>
+        <v>2776.0</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>162</v>
@@ -7556,22 +7556,22 @@
         <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
         <v>243</v>
       </c>
       <c r="J18" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="K18" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>12.0</v>
+        <v>12.8</v>
       </c>
       <c r="N18" t="n">
         <v>1.0</v>
@@ -7598,40 +7598,40 @@
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
         <v>2.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="AC18" t="n">
         <v>0.08</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AF18" t="n">
         <v>0.08</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AH18" t="n">
         <v>0.18</v>
@@ -7639,16 +7639,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B19" t="n">
-        <v>810.0</v>
+        <v>817.0</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
         <v>160</v>
@@ -7660,22 +7660,22 @@
         <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
         <v>234</v>
       </c>
       <c r="J19" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>15.2</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
@@ -7696,66 +7696,66 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U19" t="n">
         <v>1.0</v>
       </c>
       <c r="V19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X19" t="n">
         <v>1.6</v>
       </c>
-      <c r="W19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Y19" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Z19" t="n">
         <v>3.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B20" t="n">
-        <v>1107.0</v>
+        <v>1034.0</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
         <v>167</v>
@@ -7764,32 +7764,32 @@
         <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="I20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J20" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="K20" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>459.0</v>
       </c>
       <c r="M20" t="n">
-        <v>23.9</v>
+        <v>5.1</v>
       </c>
       <c r="N20" t="n">
         <v>1.0</v>
       </c>
       <c r="O20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>2.0</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Q20" t="n">
         <v>1.0</v>
       </c>
@@ -7800,60 +7800,60 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>73.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>1110.0</v>
+        <v>1115.0</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>145</v>
@@ -7868,99 +7868,99 @@
         <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J21" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="K21" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" t="n">
         <v>8.0</v>
       </c>
-      <c r="L21" t="n">
-        <v>723.0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.0</v>
-      </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>31.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.0</v>
+        <v>55.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE21" t="n">
         <v>0.12</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AG21" t="n">
         <v>0.12</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>1497.0</v>
+        <v>1118.0</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>161</v>
@@ -7972,22 +7972,22 @@
         <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J22" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>8.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>723.0</v>
       </c>
       <c r="M22" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -8008,66 +8008,66 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>60.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>1832.0</v>
+        <v>1509.0</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>167</v>
@@ -8076,31 +8076,31 @@
         <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J23" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="K23" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>17.5</v>
+        <v>16.1</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -8112,60 +8112,60 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X23" t="n">
-        <v>2.0</v>
+        <v>1.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>69.0</v>
+        <v>29.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>58.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.0</v>
+        <v>61.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.06</v>
       </c>
       <c r="AD23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0.06</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.11</v>
       </c>
       <c r="AF23" t="n">
         <v>0.06</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B24" t="n">
-        <v>2280.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -8180,31 +8180,31 @@
         <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J24" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>152.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>1.7</v>
+        <v>19.3</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -8216,102 +8216,102 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" t="n">
         <v>1.0</v>
       </c>
       <c r="V24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.1</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AF24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG24" t="n">
         <v>0.1</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AH24" t="n">
         <v>0.1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B25" t="n">
-        <v>122.0</v>
+        <v>2302.0</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
         <v>169</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J25" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L25" t="n">
-        <v>441.0</v>
+        <v>152.0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R25" t="n">
         <v>0.0</v>
@@ -8323,7 +8323,7 @@
         <v>1.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V25" t="n">
         <v>0.1</v>
@@ -8332,34 +8332,34 @@
         <v>0.1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y25" t="n">
         <v>0.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AD25" t="n">
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AH25" t="n">
         <v>0.03</v>
@@ -8367,19 +8367,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B26" t="n">
-        <v>611.0</v>
+        <v>124.0</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
         <v>168</v>
@@ -8388,22 +8388,22 @@
         <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="I26" t="s">
         <v>241</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.0</v>
+        <v>518.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -8424,31 +8424,31 @@
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X26" t="n">
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
@@ -8466,24 +8466,24 @@
         <v>0.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B27" t="n">
-        <v>798.0</v>
+        <v>617.0</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>168</v>
@@ -8492,31 +8492,31 @@
         <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J27" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" t="n">
-        <v>542.0</v>
+        <v>28.0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.0</v>
+        <v>0.3</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -8528,60 +8528,60 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>911.0</v>
+        <v>805.0</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
@@ -8596,7 +8596,7 @@
         <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s">
         <v>240</v>
@@ -8605,13 +8605,13 @@
         <v>13.0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="L28" t="n">
-        <v>985.0</v>
+        <v>632.0</v>
       </c>
       <c r="M28" t="n">
-        <v>10.9</v>
+        <v>7.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -8632,66 +8632,66 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>44.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>67.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>992.0</v>
+        <v>918.0</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>168</v>
@@ -8700,31 +8700,31 @@
         <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J29" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="L29" t="n">
-        <v>149.0</v>
+        <v>985.0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -8736,66 +8736,66 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.0</v>
+        <v>67.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>1534.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -8804,22 +8804,22 @@
         <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L30" t="n">
-        <v>121.0</v>
+        <v>149.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -8840,31 +8840,31 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
@@ -8882,24 +8882,24 @@
         <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="n">
-        <v>1596.0</v>
+        <v>1547.0</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
         <v>168</v>
@@ -8908,67 +8908,67 @@
         <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z31" t="n">
         <v>2.0</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
@@ -8986,24 +8986,24 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B32" t="n">
-        <v>1798.0</v>
+        <v>1610.0</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
         <v>168</v>
@@ -9012,31 +9012,31 @@
         <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J32" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L32" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>142.0</v>
       </c>
       <c r="M32" t="n">
-        <v>12.5</v>
+        <v>1.6</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -9048,60 +9048,60 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>1908.0</v>
+        <v>1815.0</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
         <v>145</v>
@@ -9116,31 +9116,31 @@
         <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J33" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="K33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>307.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="L33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>3.4</v>
+        <v>12.5</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -9152,66 +9152,66 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2</v>
+        <v>2.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B34" t="n">
-        <v>1921.0</v>
+        <v>1926.0</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -9220,68 +9220,68 @@
         <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB34" t="n">
         <v>12.0</v>
       </c>
-      <c r="K34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>313.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>10.0</v>
-      </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
@@ -9298,24 +9298,24 @@
         <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>2168.0</v>
+        <v>1939.0</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
         <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
         <v>168</v>
@@ -9324,22 +9324,22 @@
         <v>169</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J35" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="K35" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L35" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>313.0</v>
       </c>
       <c r="M35" t="n">
-        <v>32.4</v>
+        <v>3.5</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -9360,31 +9360,31 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
@@ -9402,24 +9402,24 @@
         <v>0.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>2537.0</v>
+        <v>2189.0</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
         <v>168</v>
@@ -9428,31 +9428,31 @@
         <v>169</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J36" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
       <c r="K36" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>989.0</v>
+        <v>35.0</v>
+      </c>
+      <c r="L36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M36" t="n">
-        <v>11.0</v>
+        <v>34.4</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" t="n">
         <v>0.0</v>
@@ -9464,63 +9464,63 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>61.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>2573.0</v>
+        <v>2561.0</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>161</v>
@@ -9532,22 +9532,22 @@
         <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J37" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="n">
-        <v>22.6</v>
+        <v>12.1</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -9568,46 +9568,46 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="U37" t="n">
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W37" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="X37" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>121.0</v>
+        <v>67.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>73.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AH37" t="n">
         <v>0.02</v>
@@ -9615,19 +9615,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B38" t="n">
-        <v>2590.0</v>
+        <v>2597.0</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
         <v>168</v>
@@ -9636,31 +9636,31 @@
         <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J38" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K38" t="n">
         <v>25.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>15.0</v>
       </c>
       <c r="L38" t="e">
         <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>15.1</v>
+        <v>23.6</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -9672,66 +9672,66 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.6</v>
+        <v>2.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>24.0</v>
+        <v>46.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>43.0</v>
+        <v>124.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>27.0</v>
+        <v>77.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>2786.0</v>
+        <v>2614.0</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
         <v>168</v>
@@ -9740,126 +9740,126 @@
         <v>169</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J39" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="L39" t="e">
         <v>#N/A</v>
       </c>
       <c r="M39" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AB39" t="n">
         <v>28.0</v>
       </c>
-      <c r="N39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AC39" t="n">
         <v>0.0</v>
       </c>
       <c r="AD39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH39" t="n">
         <v>0.07</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
-        <v>68.0</v>
+        <v>2811.0</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
         <v>169</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J40" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="K40" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="L40" t="e">
         <v>#N/A</v>
       </c>
       <c r="M40" t="n">
-        <v>18.4</v>
+        <v>28.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -9880,46 +9880,46 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W40" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X40" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>30.0</v>
+        <v>129.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>101.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AH40" t="n">
         <v>0.03</v>
@@ -9927,19 +9927,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>453.0</v>
+        <v>69.0</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
         <v>167</v>
@@ -9948,31 +9948,31 @@
         <v>169</v>
       </c>
       <c r="H41" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J41" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="K41" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="n">
-        <v>28.6</v>
+        <v>18.8</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q41" t="n">
         <v>0.0</v>
@@ -9984,60 +9984,60 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="X41" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>75.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>67.0</v>
+        <v>104.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AF41" t="n">
         <v>0.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>530.0</v>
+        <v>457.0</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>145</v>
@@ -10052,31 +10052,31 @@
         <v>169</v>
       </c>
       <c r="H42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="K42" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="L42" t="e">
         <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>17.9</v>
+        <v>28.9</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q42" t="n">
         <v>0.0</v>
@@ -10091,43 +10091,43 @@
         <v>2.0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="X42" t="n">
-        <v>0.3</v>
+        <v>1.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="Z42" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AB42" t="n">
         <v>67.0</v>
       </c>
-      <c r="AB42" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AC42" t="n">
         <v>0.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="AF42" t="n">
         <v>0.0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="AH42" t="n">
         <v>0.02</v>
@@ -10135,19 +10135,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
-        <v>682.0</v>
+        <v>535.0</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
         <v>167</v>
@@ -10156,31 +10156,31 @@
         <v>169</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J43" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0</v>
+        <v>19.9</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q43" t="n">
         <v>0.0</v>
@@ -10192,66 +10192,66 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AF43" t="n">
         <v>0.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
-        <v>818.0</v>
+        <v>689.0</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
         <v>167</v>
@@ -10260,10 +10260,10 @@
         <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J44" t="n">
         <v>1.0</v>
@@ -10272,10 +10272,10 @@
         <v>0.0</v>
       </c>
       <c r="L44" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -10320,7 +10320,7 @@
         <v>0.0</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" t="n">
         <v>0.0</v>
@@ -10343,19 +10343,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B45" t="n">
-        <v>831.0</v>
+        <v>825.0</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
         <v>167</v>
@@ -10364,22 +10364,22 @@
         <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="I45" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J45" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L45" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>21.0</v>
       </c>
       <c r="M45" t="n">
-        <v>24.3</v>
+        <v>0.2</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -10400,31 +10400,31 @@
         <v>0.0</v>
       </c>
       <c r="T45" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="U45" t="n">
         <v>0.0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>64.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -10442,24 +10442,24 @@
         <v>0.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B46" t="n">
-        <v>850.0</v>
+        <v>838.0</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
         <v>167</v>
@@ -10468,22 +10468,22 @@
         <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J46" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.0</v>
+        <v>28.0</v>
       </c>
       <c r="L46" t="e">
         <v>#N/A</v>
       </c>
       <c r="M46" t="n">
-        <v>13.6</v>
+        <v>26.3</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -10504,32 +10504,32 @@
         <v>0.0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="U46" t="n">
         <v>0.0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X46" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="Z46" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="AB46" t="n">
         <v>9.0</v>
       </c>
-      <c r="AA46" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>23.0</v>
-      </c>
       <c r="AC46" t="n">
         <v>0.0</v>
       </c>
@@ -10546,24 +10546,24 @@
         <v>0.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>958.0</v>
+        <v>857.0</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
         <v>167</v>
@@ -10572,67 +10572,67 @@
         <v>169</v>
       </c>
       <c r="H47" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I47" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J47" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="K47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M47" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" t="n">
         <v>3.0</v>
       </c>
-      <c r="L47" t="n">
-        <v>282.0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U47" t="n">
         <v>0.0</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
@@ -10650,24 +10650,24 @@
         <v>0.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>977.0</v>
+        <v>965.0</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
         <v>167</v>
@@ -10676,22 +10676,22 @@
         <v>169</v>
       </c>
       <c r="H48" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J48" t="n">
-        <v>28.0</v>
+        <v>4.0</v>
       </c>
       <c r="K48" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L48" t="e">
-        <v>#N/A</v>
+        <v>3.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>282.0</v>
       </c>
       <c r="M48" t="n">
-        <v>12.6</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -10712,31 +10712,31 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" t="n">
         <v>0.0</v>
@@ -10754,24 +10754,24 @@
         <v>0.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>1026.0</v>
+        <v>984.0</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
         <v>167</v>
@@ -10780,31 +10780,31 @@
         <v>169</v>
       </c>
       <c r="H49" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="I49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J49" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>429.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M49" t="n">
-        <v>4.8</v>
+        <v>12.9</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q49" t="n">
         <v>0.0</v>
@@ -10816,60 +10816,60 @@
         <v>0.0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U49" t="n">
         <v>0.0</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="W49" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="X49" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB49" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
       <c r="AC49" t="n">
         <v>0.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="AF49" t="n">
         <v>0.0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>1347.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
         <v>146</v>
@@ -10884,7 +10884,7 @@
         <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I50" t="s">
         <v>232</v>
@@ -10970,13 +10970,13 @@
         <v>77</v>
       </c>
       <c r="B51" t="n">
-        <v>1426.0</v>
+        <v>1438.0</v>
       </c>
       <c r="C51" t="s">
         <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
         <v>165</v>
@@ -10994,16 +10994,16 @@
         <v>234</v>
       </c>
       <c r="J51" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K51" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="n">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -11074,7 +11074,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="n">
-        <v>1583.0</v>
+        <v>1597.0</v>
       </c>
       <c r="C52" t="s">
         <v>128</v>
@@ -11175,16 +11175,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>1657.0</v>
+        <v>1673.0</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
         <v>161</v>
@@ -11196,10 +11196,10 @@
         <v>169</v>
       </c>
       <c r="H53" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J53" t="n">
         <v>4.0</v>
@@ -11282,7 +11282,7 @@
         <v>79</v>
       </c>
       <c r="B54" t="n">
-        <v>1699.0</v>
+        <v>1715.0</v>
       </c>
       <c r="C54" t="s">
         <v>139</v>
@@ -11386,7 +11386,7 @@
         <v>81</v>
       </c>
       <c r="B55" t="n">
-        <v>1846.0</v>
+        <v>1863.0</v>
       </c>
       <c r="C55" t="s">
         <v>141</v>
@@ -11490,13 +11490,13 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>1903.0</v>
+        <v>1921.0</v>
       </c>
       <c r="C56" t="s">
         <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>160</v>
@@ -11514,16 +11514,16 @@
         <v>238</v>
       </c>
       <c r="J56" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K56" t="n">
         <v>0.0</v>
       </c>
       <c r="L56" t="n">
-        <v>144.0</v>
+        <v>155.0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N56" t="n">
         <v>0.0</v>
@@ -11562,13 +11562,13 @@
         <v>0.2</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA56" t="n">
         <v>3.0</v>
       </c>
       <c r="AB56" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC56" t="n">
         <v>0.0</v>
@@ -11586,7 +11586,7 @@
         <v>0.0</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57">
@@ -11594,7 +11594,7 @@
         <v>82</v>
       </c>
       <c r="B57" t="n">
-        <v>1958.0</v>
+        <v>1976.0</v>
       </c>
       <c r="C57" t="s">
         <v>142</v>
@@ -11698,7 +11698,7 @@
         <v>83</v>
       </c>
       <c r="B58" t="n">
-        <v>1968.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C58" t="s">
         <v>143</v>
@@ -11802,7 +11802,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="n">
-        <v>2274.0</v>
+        <v>2296.0</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>
@@ -11903,13 +11903,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" t="n">
-        <v>2412.0</v>
+        <v>2435.0</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -11924,22 +11924,22 @@
         <v>169</v>
       </c>
       <c r="H60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J60" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="K60" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="L60" t="e">
         <v>#N/A</v>
       </c>
       <c r="M60" t="n">
-        <v>16.1</v>
+        <v>17.5</v>
       </c>
       <c r="N60" t="n">
         <v>0.0</v>
@@ -11960,7 +11960,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U60" t="n">
         <v>1.0</v>
@@ -11975,16 +11975,16 @@
         <v>2.2</v>
       </c>
       <c r="Y60" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z60" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA60" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB60" t="n">
-        <v>67.0</v>
+        <v>76.0</v>
       </c>
       <c r="AC60" t="n">
         <v>0.0</v>
@@ -12007,13 +12007,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B61" t="n">
-        <v>2752.0</v>
+        <v>2777.0</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -12028,22 +12028,22 @@
         <v>169</v>
       </c>
       <c r="H61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J61" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="K61" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L61" t="n">
-        <v>392.0</v>
+        <v>534.0</v>
       </c>
       <c r="M61" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="N61" t="n">
         <v>0.0</v>
@@ -12064,7 +12064,7 @@
         <v>0.0</v>
       </c>
       <c r="T61" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U61" t="n">
         <v>0.0</v>
@@ -12082,13 +12082,13 @@
         <v>0.2</v>
       </c>
       <c r="Z61" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB61" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC61" t="n">
         <v>0.0</v>
